--- a/data/trans_dic/P20_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P20_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha empeorado la relación con sus convivientes</t>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,14%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,53%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>10,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>12,28%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,69; 14,76</t>
+          <t>7,88; 13,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,14; 18,09</t>
+          <t>10,09; 18,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 15,4</t>
+          <t>8,98; 13,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,46</t>
+          <t>9,21; 13,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,97; 14,12</t>
+          <t>9,24; 12,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,1; 15,35</t>
+          <t>10,49; 15,23</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>10,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>11,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>11,63%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>11,13%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,3; 13,8</t>
+          <t>7,14; 13,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,16; 18,54</t>
+          <t>7,52; 13,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,16</t>
+          <t>9,75; 15,4</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,91; 15,44</t>
+          <t>9,09; 15,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,72; 14,06</t>
+          <t>9,01; 13,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,82; 15,24</t>
+          <t>9,17; 13,49</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,48%</t>
+          <t>10,02%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,45%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>8,39%</t>
+          <t>7,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,9%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,91; 11,84</t>
+          <t>2,7; 10,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 13,5</t>
+          <t>2,78; 12,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,5; 16,54</t>
+          <t>6,26; 15,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 16,42</t>
+          <t>5,5; 15,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 12,02</t>
+          <t>5,35; 11,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 13,07</t>
+          <t>5,83; 12,76</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>11,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>11,52%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,81</t>
+          <t>7,63; 11,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 15,16</t>
+          <t>9,58; 14,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 14,56</t>
+          <t>9,95; 13,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,08</t>
+          <t>9,91; 13,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 12,74</t>
+          <t>9,32; 11,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,62; 13,83</t>
+          <t>10,08; 12,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha empeorado la relación con sus convivientes (tasa de respuesta: 99,97%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>167220</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>217158</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>202364</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>207709</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>369584</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>424867</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>129153; 228517</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>166670; 309496</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>160689; 246501</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>166319; 249600</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>316677; 440645</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>363014; 526772</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>130665</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>141537</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>172816</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>303481</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>307539</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>98961; 184693</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>103073; 187177</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>137510; 217040</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>126457; 217206</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>251945; 364634</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>253431; 372745</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24368</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>29177</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>41267</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>42115</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>65635</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>71292</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11415; 45088</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11607; 51724</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>25767; 64288</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>22541; 65291</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44679; 94074</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>48308; 105621</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>119.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>300.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>322254</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>387872</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>416447</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>415826</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>738700</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>803698</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>263305; 390803</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>329551; 491009</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>359214; 475941</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>357727; 487772</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>658253; 835207</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>710634; 914652</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>